--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fn1-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fn1-Cd44.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H2">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I2">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J2">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N2">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O2">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P2">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q2">
-        <v>521.257865301733</v>
+        <v>471.462724926133</v>
       </c>
       <c r="R2">
-        <v>4691.320787715596</v>
+        <v>4243.164524335197</v>
       </c>
       <c r="S2">
-        <v>0.000453383506213863</v>
+        <v>0.0006262458445444171</v>
       </c>
       <c r="T2">
-        <v>0.0004722677190893159</v>
+        <v>0.0006691167624270213</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H3">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I3">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J3">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>243.189949</v>
       </c>
       <c r="O3">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P3">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q3">
-        <v>2004.030039906288</v>
+        <v>2367.819397797293</v>
       </c>
       <c r="R3">
-        <v>18036.27035915659</v>
+        <v>21310.37458017563</v>
       </c>
       <c r="S3">
-        <v>0.001743080011895218</v>
+        <v>0.00314518408371424</v>
       </c>
       <c r="T3">
-        <v>0.001815682331018952</v>
+        <v>0.003360493981182189</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H4">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I4">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J4">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N4">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O4">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P4">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q4">
-        <v>3386.870422679371</v>
+        <v>4927.75197323269</v>
       </c>
       <c r="R4">
-        <v>30481.83380411433</v>
+        <v>44349.76775909421</v>
       </c>
       <c r="S4">
-        <v>0.002945857107475086</v>
+        <v>0.006545552878365992</v>
       </c>
       <c r="T4">
-        <v>0.00306855718799364</v>
+        <v>0.006993641855545257</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H5">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I5">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J5">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N5">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O5">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P5">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q5">
-        <v>1684.324965010826</v>
+        <v>2407.878954469128</v>
       </c>
       <c r="R5">
-        <v>10105.94979006496</v>
+        <v>14447.27372681477</v>
       </c>
       <c r="S5">
-        <v>0.001465004576570006</v>
+        <v>0.003198395354878804</v>
       </c>
       <c r="T5">
-        <v>0.001017349712917237</v>
+        <v>0.002278231957903598</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H6">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I6">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J6">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N6">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O6">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P6">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q6">
-        <v>7819.323503173257</v>
+        <v>3598.271673940985</v>
       </c>
       <c r="R6">
-        <v>70373.91152855931</v>
+        <v>32384.44506546886</v>
       </c>
       <c r="S6">
-        <v>0.006801148801921725</v>
+        <v>0.004779598819186565</v>
       </c>
       <c r="T6">
-        <v>0.007084428497836684</v>
+        <v>0.005106795862127753</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I7">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J7">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N7">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O7">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P7">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q7">
-        <v>30747.79479326125</v>
+        <v>23537.71868159221</v>
       </c>
       <c r="R7">
-        <v>276730.1531393512</v>
+        <v>211839.4681343299</v>
       </c>
       <c r="S7">
-        <v>0.02674404347576335</v>
+        <v>0.03126524693274975</v>
       </c>
       <c r="T7">
-        <v>0.02785797947745913</v>
+        <v>0.03340557224669791</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I8">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J8">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>243.189949</v>
       </c>
       <c r="O8">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P8">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q8">
         <v>118213.0928439821</v>
@@ -948,10 +948,10 @@
         <v>1063917.835595839</v>
       </c>
       <c r="S8">
-        <v>0.1028202547753697</v>
+        <v>0.1570229293861694</v>
       </c>
       <c r="T8">
-        <v>0.1071028975104375</v>
+        <v>0.1677722495933121</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I9">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J9">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N9">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O9">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P9">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q9">
-        <v>199783.645830706</v>
+        <v>246017.4125044235</v>
       </c>
       <c r="R9">
-        <v>1798052.812476354</v>
+        <v>2214156.712539811</v>
       </c>
       <c r="S9">
-        <v>0.1737692912863428</v>
+        <v>0.3267859241483059</v>
       </c>
       <c r="T9">
-        <v>0.1810070849927596</v>
+        <v>0.349156711342183</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I10">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J10">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N10">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O10">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P10">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q10">
-        <v>99354.43057409083</v>
+        <v>120213.0612945074</v>
       </c>
       <c r="R10">
-        <v>596126.583444545</v>
+        <v>721278.3677670446</v>
       </c>
       <c r="S10">
-        <v>0.08641722857359323</v>
+        <v>0.1596794955686976</v>
       </c>
       <c r="T10">
-        <v>0.06001110446104275</v>
+        <v>0.1137404509019236</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I11">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J11">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N11">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O11">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P11">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q11">
-        <v>461243.7921843606</v>
+        <v>179643.2717229862</v>
       </c>
       <c r="R11">
-        <v>4151194.129659246</v>
+        <v>1616789.445506876</v>
       </c>
       <c r="S11">
-        <v>0.4011840235712766</v>
+        <v>0.2386208844707923</v>
       </c>
       <c r="T11">
-        <v>0.4178940370576893</v>
+        <v>0.254956156684317</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H12">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I12">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J12">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N12">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O12">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P12">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q12">
-        <v>1267.20160805861</v>
+        <v>935.9368045840605</v>
       </c>
       <c r="R12">
-        <v>11404.81447252749</v>
+        <v>8423.431241256543</v>
       </c>
       <c r="S12">
-        <v>0.001102195950192309</v>
+        <v>0.001243208643310625</v>
       </c>
       <c r="T12">
-        <v>0.001148104331658827</v>
+        <v>0.001328314989520533</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H13">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I13">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J13">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>243.189949</v>
       </c>
       <c r="O13">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P13">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q13">
-        <v>4871.888288336904</v>
+        <v>4700.539838761945</v>
       </c>
       <c r="R13">
-        <v>43846.99459503213</v>
+        <v>42304.85854885751</v>
       </c>
       <c r="S13">
-        <v>0.004237506886864614</v>
+        <v>0.006243746081095508</v>
       </c>
       <c r="T13">
-        <v>0.004414006430884202</v>
+        <v>0.006671174267412987</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H14">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I14">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J14">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N14">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O14">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P14">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q14">
-        <v>8233.636231888957</v>
+        <v>9782.458276702158</v>
       </c>
       <c r="R14">
-        <v>74102.72608700061</v>
+        <v>88042.12449031943</v>
       </c>
       <c r="S14">
-        <v>0.007161512779365832</v>
+        <v>0.01299407889812222</v>
       </c>
       <c r="T14">
-        <v>0.007459802262733204</v>
+        <v>0.0138836146838754</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H15">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I15">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J15">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N15">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O15">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P15">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q15">
-        <v>4094.670692248421</v>
+        <v>4780.06513627166</v>
       </c>
       <c r="R15">
-        <v>24568.02415349053</v>
+        <v>28680.39081762996</v>
       </c>
       <c r="S15">
-        <v>0.003561492840339426</v>
+        <v>0.006349379855450459</v>
       </c>
       <c r="T15">
-        <v>0.00247322348108922</v>
+        <v>0.004522692942725555</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H16">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I16">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J16">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N16">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O16">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P16">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q16">
-        <v>19009.13151960969</v>
+        <v>7143.204996877136</v>
       </c>
       <c r="R16">
-        <v>171082.1836764872</v>
+        <v>64288.84497189422</v>
       </c>
       <c r="S16">
-        <v>0.01653390245431074</v>
+        <v>0.009488348090984497</v>
       </c>
       <c r="T16">
-        <v>0.01722256829532591</v>
+        <v>0.01013789202871087</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H17">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I17">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J17">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N17">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O17">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P17">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q17">
-        <v>431.652166216278</v>
+        <v>475.8462134379934</v>
       </c>
       <c r="R17">
-        <v>2589.912997297668</v>
+        <v>2855.07728062796</v>
       </c>
       <c r="S17">
-        <v>0.0003754456011338284</v>
+        <v>0.0006320684500655447</v>
       </c>
       <c r="T17">
-        <v>0.000260722376324459</v>
+        <v>0.0004502253107406992</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H18">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I18">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J18">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>243.189949</v>
       </c>
       <c r="O18">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P18">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q18">
-        <v>1659.531616635286</v>
+        <v>2389.834519204888</v>
       </c>
       <c r="R18">
-        <v>9957.189699811717</v>
+        <v>14339.00711522933</v>
       </c>
       <c r="S18">
-        <v>0.001443439635366141</v>
+        <v>0.003174426858529169</v>
       </c>
       <c r="T18">
-        <v>0.001002374273868306</v>
+        <v>0.002261159085945058</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H19">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I19">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J19">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N19">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O19">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P19">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q19">
-        <v>2804.657832447542</v>
+        <v>4973.56841432535</v>
       </c>
       <c r="R19">
-        <v>16827.94699468525</v>
+        <v>29841.4104859521</v>
       </c>
       <c r="S19">
-        <v>0.002439455951555139</v>
+        <v>0.006606411042392825</v>
       </c>
       <c r="T19">
-        <v>0.001694042361150449</v>
+        <v>0.004705777458333282</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H20">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I20">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J20">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N20">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O20">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P20">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q20">
-        <v>1394.784746966316</v>
+        <v>2430.266535028163</v>
       </c>
       <c r="R20">
-        <v>5579.138987865265</v>
+        <v>9721.066140112651</v>
       </c>
       <c r="S20">
-        <v>0.001213166152662564</v>
+        <v>0.003228132868691153</v>
       </c>
       <c r="T20">
-        <v>0.0005616429495038693</v>
+        <v>0.001532942751973593</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H21">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I21">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J21">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N21">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O21">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P21">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q21">
-        <v>6475.159711090062</v>
+        <v>3631.727091965271</v>
       </c>
       <c r="R21">
-        <v>38850.95826654037</v>
+        <v>21790.36255179163</v>
       </c>
       <c r="S21">
-        <v>0.005632012116324409</v>
+        <v>0.004824037786272432</v>
       </c>
       <c r="T21">
-        <v>0.003911063488350296</v>
+        <v>0.003436184658677643</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H22">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I22">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J22">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N22">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O22">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P22">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q22">
-        <v>5907.350001509649</v>
+        <v>349.0994254306841</v>
       </c>
       <c r="R22">
-        <v>53166.15001358684</v>
+        <v>3141.894828876156</v>
       </c>
       <c r="S22">
-        <v>0.005138138404044163</v>
+        <v>0.0004637101788758854</v>
       </c>
       <c r="T22">
-        <v>0.005352150819748894</v>
+        <v>0.0004954543911099449</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H23">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I23">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J23">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>243.189949</v>
       </c>
       <c r="O23">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P23">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q23">
-        <v>22711.42105915851</v>
+        <v>1753.276234985857</v>
       </c>
       <c r="R23">
-        <v>204402.7895324266</v>
+        <v>15779.48611487271</v>
       </c>
       <c r="S23">
-        <v>0.01975410712496432</v>
+        <v>0.002328883914779056</v>
       </c>
       <c r="T23">
-        <v>0.02057690010044667</v>
+        <v>0.002488312343627544</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H24">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I24">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J24">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N24">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O24">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P24">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q24">
-        <v>38382.97765530417</v>
+        <v>3648.80464895709</v>
       </c>
       <c r="R24">
-        <v>345446.7988977375</v>
+        <v>32839.24184061381</v>
       </c>
       <c r="S24">
-        <v>0.03338502907426979</v>
+        <v>0.004846721974301873</v>
       </c>
       <c r="T24">
-        <v>0.03477557369543716</v>
+        <v>0.005178514067726889</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H25">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I25">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J25">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N25">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O25">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P25">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q25">
-        <v>19088.24354878538</v>
+        <v>1782.938745886028</v>
       </c>
       <c r="R25">
-        <v>114529.4612927123</v>
+        <v>10697.63247531617</v>
       </c>
       <c r="S25">
-        <v>0.01660271309786929</v>
+        <v>0.002368284747989986</v>
       </c>
       <c r="T25">
-        <v>0.01152949668137602</v>
+        <v>0.001686940293374365</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H26">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I26">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J26">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N26">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O26">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P26">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q26">
-        <v>88615.41241499882</v>
+        <v>2664.377282664527</v>
       </c>
       <c r="R26">
-        <v>797538.7117349894</v>
+        <v>23979.39554398074</v>
       </c>
       <c r="S26">
-        <v>0.07707656624431579</v>
+        <v>0.00353910312173381</v>
       </c>
       <c r="T26">
-        <v>0.08028693950385826</v>
+        <v>0.003781379538626118</v>
       </c>
     </row>
   </sheetData>
